--- a/dev/output.xlsx
+++ b/dev/output.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Measurements" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="objects" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -619,4 +620,203 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Dimensions, weight, before drying</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Dimensions, weight, after drying</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>lo (mm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>h_w</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>l_w</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>w_w</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>m_w</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>h_0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>l_0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>w_0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>m_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>height (mm)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>length (mm)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>width (mm)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>mass (g)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>height (mm)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>length (mm)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>width (mm)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>mass (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_1.csv</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test_2.csv</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="M1:M3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>